--- a/product_image/product_image/11/10/11-10.xlsx
+++ b/product_image/product_image/11/10/11-10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Kmarket\product_image\product_image\11\10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\workspace\Kmarket\product_image\product_image\11\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -972,7 +972,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1191,7 +1191,9 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="17.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3">
+        <v>99999999</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1391,9 +1393,6 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="17.25">
-      <c r="A32" s="3">
-        <v>99999999</v>
-      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
